--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.36</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.66</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>007393</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>上银未来生活灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>69.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>009899</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>上银内需增长股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.92</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,25 +1090,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2546,14 +2611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.54</v>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2562,14 +2649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2578,13 +2687,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.74</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.86</v>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2809,14 +2896,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2825,14 +2934,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.58</v>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2841,13 +2972,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2108,404 +2561,6 @@
       </c>
       <c r="H11" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1762</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004138</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上银鑫达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1193</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0960</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007393</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上银未来生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2580,22 +2635,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>74.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1922</t>
+          <t>0.1762</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2618,26 +2673,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>70.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1164</t>
+          <t>0.1193</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2656,26 +2711,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0960</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2694,26 +2749,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69.66</t>
+          <t>62.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0660</t>
+          <t>0.0652</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2732,22 +2787,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0464</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2760,36 +2815,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2798,32 +2853,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2836,36 +2891,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2874,36 +2929,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2912,6 +2967,404 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603886-元祖股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -616,7 +633,839 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1374,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1620,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2132,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2561,404 +3410,6 @@
       </c>
       <c r="H11" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1762</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004138</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上银鑫达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1193</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0960</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007393</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上银未来生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3033,22 +3484,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>74.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1922</t>
+          <t>0.1762</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3071,26 +3522,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>70.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1164</t>
+          <t>0.1193</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3109,26 +3560,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0960</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3147,26 +3598,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69.66</t>
+          <t>62.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0660</t>
+          <t>0.0652</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3185,22 +3636,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0464</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3213,36 +3664,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3251,32 +3702,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3289,36 +3740,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -3327,36 +3778,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3370,53 +3821,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3431,22 +3882,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>72.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1232</t>
+          <t>0.1922</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3454,7 +3905,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3469,30 +3920,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.36</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1163</t>
+          <t>0.1164</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3507,143 +3958,257 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.0818</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>512590</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>501089</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>